--- a/src/onboard/part_order_digikey.xlsx
+++ b/src/onboard/part_order_digikey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/code/aero-hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9D39B-9525-4540-8CDF-EED7EE8C92AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29B24D-885D-7F41-8FDD-9C9077B442E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{EBE6C59A-381D-0E4A-B8DE-3E8DA00BDEB0}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{EBE6C59A-381D-0E4A-B8DE-3E8DA00BDEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,21 +202,6 @@
     <t>https://www.digikey.ca/product-detail/en/grayhill-inc/76SB04ST/GH7169-ND/726227</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/kingbright/WP7113ND/754-1896-ND/3084223</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/broadcom-limited/HLMP-1719/516-1309-ND/637573</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/broadcom-limited/HLMP-4700-C0002/516-2483-1-ND/2744909</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/151031VS06000/732-5008-ND/4489988</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/everlight-electronics-co-ltd/3474AN-BADB-AGJA-PR-MS/1080-1012-3-ND/4135467</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/sparkfun-electronics/SEN-13762/1568-1420-ND/6166011</t>
   </si>
   <si>
@@ -287,6 +272,21 @@
   </si>
   <si>
     <t>LM2940-5.0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SSL-LX5093USBD/67-1751-ND/468025</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SSL-LX5093SRD-D/67-1648-ND/413799</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SSL-LX5093LGT/67-1109-ND/270907</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SSL-LX5093YT/67-1117-ND/270915</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lumex-opto-components-inc/SSL-LX5093UWW/67-1696-ND/754537</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:XFD17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -690,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -858,7 +858,7 @@
         <v>1000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -888,7 +888,7 @@
         <v>220</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -903,7 +903,7 @@
         <v>3800</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -918,7 +918,7 @@
         <v>4700</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -935,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -950,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -965,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -980,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -995,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1027,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1072,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1087,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1170,27 +1170,27 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{536B8335-2830-5145-9266-CF1F535CD438}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{109E68C9-9D67-9642-BC10-56483DEEC5E0}"/>
     <hyperlink ref="E27" r:id="rId8" xr:uid="{EC30AFF3-7005-7C45-B581-95659FA4E91F}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{4B9D519E-C5F5-E64E-BA81-8775259A217C}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{1CACB45E-80F4-914A-A17F-7D4EBFC99976}"/>
-    <hyperlink ref="E26" r:id="rId11" xr:uid="{1D7EC93F-BBD8-5640-8ACF-7FAA304081EE}"/>
-    <hyperlink ref="E25" r:id="rId12" xr:uid="{734FD2CD-FA97-5748-97FD-6F89CD725266}"/>
-    <hyperlink ref="E24" r:id="rId13" xr:uid="{2327235A-A558-6843-AEA7-008245664FC9}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{EEB3F33B-7D15-4042-B8E3-A1257EC4294F}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{0A4DC0BB-B563-9A49-9F8A-C2DDC75E1307}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{E10C203A-B0C1-C54A-A699-DFDCC75EC65C}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{46B56DB2-7BD0-EE49-8F22-EB37EE4DB30C}"/>
-    <hyperlink ref="E18" r:id="rId18" xr:uid="{E39C3B1B-E41D-DA41-8208-F2AD21D452FB}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{2E0D8542-FDC2-B143-8783-B9CBBB5DF62C}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{1877662A-F1CB-7A48-A19B-B2032E4A13E5}"/>
-    <hyperlink ref="E13" r:id="rId21" xr:uid="{89169F48-FF45-8749-953D-AF9CC1321474}"/>
-    <hyperlink ref="E29" r:id="rId22" xr:uid="{E7457D1C-1EB1-844F-B721-F7D21BC61787}"/>
-    <hyperlink ref="E6" r:id="rId23" xr:uid="{9238B963-B099-FA46-BDC3-A3EB861D3C43}"/>
-    <hyperlink ref="E30" r:id="rId24" xr:uid="{5DEB2699-3834-9347-9BED-E40DEBDA9765}"/>
-    <hyperlink ref="E11" r:id="rId25" xr:uid="{EAC49C4C-61E5-E34E-8E74-329A241EC8C9}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{13B92D7A-4C9E-DB45-9542-EE5C1519FFB8}"/>
-    <hyperlink ref="E10" r:id="rId27" xr:uid="{5FE9ACE2-E944-3F40-B513-4AC61831F84B}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{8E7D1FF4-FD80-5F4E-A464-5B7E82D14513}"/>
-    <hyperlink ref="E28" r:id="rId29" xr:uid="{67864952-A36E-0C4B-BD4B-FF301BFCDD0A}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{EEB3F33B-7D15-4042-B8E3-A1257EC4294F}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{0A4DC0BB-B563-9A49-9F8A-C2DDC75E1307}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{E10C203A-B0C1-C54A-A699-DFDCC75EC65C}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{46B56DB2-7BD0-EE49-8F22-EB37EE4DB30C}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{E39C3B1B-E41D-DA41-8208-F2AD21D452FB}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{2E0D8542-FDC2-B143-8783-B9CBBB5DF62C}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{1877662A-F1CB-7A48-A19B-B2032E4A13E5}"/>
+    <hyperlink ref="E13" r:id="rId16" xr:uid="{89169F48-FF45-8749-953D-AF9CC1321474}"/>
+    <hyperlink ref="E29" r:id="rId17" xr:uid="{E7457D1C-1EB1-844F-B721-F7D21BC61787}"/>
+    <hyperlink ref="E6" r:id="rId18" xr:uid="{9238B963-B099-FA46-BDC3-A3EB861D3C43}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{5DEB2699-3834-9347-9BED-E40DEBDA9765}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{EAC49C4C-61E5-E34E-8E74-329A241EC8C9}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{13B92D7A-4C9E-DB45-9542-EE5C1519FFB8}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{5FE9ACE2-E944-3F40-B513-4AC61831F84B}"/>
+    <hyperlink ref="E15" r:id="rId23" xr:uid="{8E7D1FF4-FD80-5F4E-A464-5B7E82D14513}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{67864952-A36E-0C4B-BD4B-FF301BFCDD0A}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{48B537A5-053E-504D-906C-77622FEADB50}"/>
+    <hyperlink ref="E25" r:id="rId26" xr:uid="{3178E079-6A59-E242-9117-2BACBC786C47}"/>
+    <hyperlink ref="E24" r:id="rId27" xr:uid="{77D45EC6-5584-DB45-831F-1345B85A89FB}"/>
+    <hyperlink ref="E23" r:id="rId28" xr:uid="{BE0B26FA-4D34-6842-B90F-8882A02CD126}"/>
+    <hyperlink ref="E22" r:id="rId29" xr:uid="{D5F278B0-508C-AA4D-B145-73A1C9AC652C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
